--- a/data/skill.xlsx
+++ b/data/skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="128">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -38,6 +38,9 @@
     <t>技能id</t>
   </si>
   <si>
+    <t>所需英雄阶数</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>skillId</t>
   </si>
   <si>
+    <t>stage</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -77,14 +83,83 @@
     <t>刘备</t>
   </si>
   <si>
-    <t>战斗开始时，为己方全体队友添加 “仁德护盾”，可吸收刘备攻击力 50% 数值的伤害，持续 2 回合。当有队友受到伤害时，若其护盾被击破，刘备有 30% 几率立即为其恢复刘备攻击力 60% 的生命值。此技能体现刘备关爱下属，战斗伊始便为队友提供防御保障，且在队友受伤时及时救援</t>
+    <t>战斗开始，为全体队友施加 “仁德护盾”，可吸收刘备攻击力 40% 的伤害，持续 2 回合。队友护盾被击破受伤害时，刘备有 30% 概率立即为其恢复刘备攻击力 50% 的生命值。</t>
   </si>
   <si>
     <t>桃园结义</t>
   </si>
   <si>
+    <t>每 3 回合，随机指定一名队友，该队友与刘备本回合攻击力各提升 20%，且双方暴击伤害增加 15%。</t>
+  </si>
+  <si>
+    <t>昭烈庇护</t>
+  </si>
+  <si>
+    <t>己方队友阵亡时，刘备攻击力提升 20%、防御力提升 10% 至战斗结束，同时为存活队友恢复刘备攻击力 60% 的生命值。</t>
+  </si>
+  <si>
+    <t>汉室皇恩</t>
+  </si>
+  <si>
+    <t>战斗开始，蜀国队友初始怒气值 + 20。每回合结束，有 40% 概率为一名蜀国队友回复 10 点怒气值。</t>
+  </si>
+  <si>
+    <t>奸雄破敌</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>攻击时，有 30% 概率触发 “奸雄”，为己方全体队友增加 10 点怒气值，并使下一次队友攻击伤害提升 25%。</t>
+  </si>
+  <si>
+    <t>魏武军威</t>
+  </si>
+  <si>
+    <t>战斗开始，曹操获得 “魏武军威”，己方全体魏国队友攻击力提升 10%、防御力提升 8%，持续 3 回合，每回合结束有 35% 概率延长 1 回合。</t>
+  </si>
+  <si>
+    <t>护驾守护</t>
+  </si>
+  <si>
+    <t>曹操受攻击时，有 40% 概率触发 “护驾”，随机一名魏国队友代替承受伤害，曹操本回合防御力提升 15%。若该队友因此阵亡，曹操为全体存活魏国队友恢复曹操攻击力 50% 的生命值。</t>
+  </si>
+  <si>
+    <t>乱世霸业</t>
+  </si>
+  <si>
+    <t>曹操每回合结束时，若本回合内有魏国队友击败敌人，全体魏国队友获得一层 “霸业之佑” 效果，每层使防御力提升 3%，最多叠加 7 次。当魏国队友累计造成 15 次伤害后，曹操可指定一名魏国队友，立即重置其一个冷却中的主动技能。</t>
+  </si>
+  <si>
+    <t>制衡之策</t>
+  </si>
+  <si>
+    <t>孙权</t>
+  </si>
+  <si>
+    <t>每回合开始，有 45% 概率重置自身所有已使用技能冷却时间，触发则为全体队友增加 10 点怒气值。</t>
+  </si>
+  <si>
+    <t>东吴水师</t>
+  </si>
+  <si>
+    <t>当有队友攻击水系敌人时，该队友攻击力提升 30%，造成伤害有 25% 概率附带 “潮湿”，使目标防御力降低 12%，持续 2 回合。若目标已有 “潮湿”，此次攻击队友额外获得 10 点怒气值。</t>
+  </si>
+  <si>
+    <t>英主之威</t>
+  </si>
+  <si>
+    <t>队友受致命伤害时，孙权消耗自身当前生命值 15%，使队友伤害免疫并回复孙权攻击力 70% 的生命值，自身获得 “英主庇护”，接下来 2 回合内所受伤害降低 20%。</t>
+  </si>
+  <si>
     <r>
-      <t>每</t>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主公技，每</t>
     </r>
     <r>
       <rPr>
@@ -93,7 +168,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>3</t>
+      <t xml:space="preserve"> 2 </t>
     </r>
     <r>
       <rPr>
@@ -102,7 +177,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>回合，随机指定一名队友，该队友本回合攻击力提升</t>
+      <t>回合，可指定一名吴势力队友，使其本回合所有技能效果提升</t>
     </r>
     <r>
       <rPr>
@@ -111,7 +186,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 35%</t>
+      <t xml:space="preserve"> 25%</t>
     </r>
     <r>
       <rPr>
@@ -120,7 +195,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>，同时刘备自身攻击力也提升</t>
+      <t>。战斗中，吴势力队友使用技能时，有</t>
     </r>
     <r>
       <rPr>
@@ -129,7 +204,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 15%</t>
+      <t xml:space="preserve"> 30% </t>
     </r>
     <r>
       <rPr>
@@ -138,7 +213,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>，持续</t>
+      <t>概率令孙权为另一名队友回复</t>
     </r>
     <r>
       <rPr>
@@ -147,7 +222,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 1 </t>
+      <t xml:space="preserve"> 10 </t>
     </r>
     <r>
       <rPr>
@@ -156,7 +231,42 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>回合。此外，此回合内双方若造成暴击，暴击伤害额外增加</t>
+      <t>点怒气值。</t>
+    </r>
+  </si>
+  <si>
+    <t>名门援护</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>战斗开始，为全体队友添加 “名门护盾”，可吸收袁绍攻击力 35% 的伤害，持续 2 回合。队友护盾被击破受伤害时，袁绍有 25% 概率立即为其恢复袁绍攻击力 40% 的生命值。</t>
+  </si>
+  <si>
+    <t>豪杰聚义</t>
+  </si>
+  <si>
+    <t>每 4 回合，随机指定一名队友，该队友与袁绍本回合防御力各提升 20%，且双方受到攻击时有 15% 概率使攻击者攻击力降低 10%，持续 1 回合</t>
+  </si>
+  <si>
+    <t>河北雄威</t>
+  </si>
+  <si>
+    <t>己方队友阵亡时，袁绍为全体存活队友增加 15 点怒气值，自身获得 “河北雄威” 状态，接下来 3 回合内，己方全体队友受到的单体伤害降低 10%。</t>
+  </si>
+  <si>
+    <t>袁门号召</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主公技，战斗开始，所有袁绍阵营队友初始怒气值增加</t>
     </r>
     <r>
       <rPr>
@@ -165,7 +275,7 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 20%</t>
+      <t xml:space="preserve"> 15 </t>
     </r>
     <r>
       <rPr>
@@ -174,20 +284,191 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>。象征着刘备与队友因深厚情义而相互激励，爆发更强战力</t>
+      <t>点。每回合结束，有</t>
     </r>
-  </si>
-  <si>
-    <t>昭烈庇护</t>
-  </si>
-  <si>
-    <t>当己方有队友阵亡时，刘备悲愤不已，自身攻击力提升 25%，防御力提升 15%，持续至战斗结束。并且，立即为存活的队友恢复刘备攻击力 70% 的生命值。展现刘备在失去战友时，激发斗志，同时抚慰生者，稳定团队状态</t>
-  </si>
-  <si>
-    <t>汉室皇恩</t>
-  </si>
-  <si>
-    <t>主公技，战斗开始时，所有蜀国队友初始怒气值增加 20 点。战斗中，每回合结束时，有 40% 几率为一名蜀国队友回复 10 点怒气值。凭借汉室宗亲之名，给予蜀国队友战斗初始优势，并持续为他们提供怒气续航，使其能更快释放强力技能</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 35% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率为一名袁绍阵营队友回复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点怒气值。</t>
+    </r>
+  </si>
+  <si>
+    <t>方天画斩</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>挥舞方天画戟，对前方直线范围内敌人造成 120% 攻击力的物理伤害</t>
+  </si>
+  <si>
+    <t>鬼神降临</t>
+  </si>
+  <si>
+    <t>激发体内的鬼神之力，接下来 3 回合内，自身攻击力提升 30%，攻击速度提升 25%，且每次攻击有 20% 几率使目标陷入眩晕状态，持续 1 回合</t>
+  </si>
+  <si>
+    <t>无双冲锋</t>
+  </si>
+  <si>
+    <t>吕布骑着赤兔马向前猛冲，对路径上的敌人造成 150% 攻击力的物理伤害并击退，冲锋结束后，自身获得一个可吸收 800 点伤害的护盾，持续 2 回合</t>
+  </si>
+  <si>
+    <t>魔神护体</t>
+  </si>
+  <si>
+    <t>生命值低于 30% 时，触发魔神护体效果，获得 25% 的伤害减免，且攻击力额外提升 35%，持续到战斗结束或生命值回复到 30% 以上</t>
+  </si>
+  <si>
+    <t>开山巨斧</t>
+  </si>
+  <si>
+    <t>许禇</t>
+  </si>
+  <si>
+    <t>挥动巨斧，对前方敌人造成 135% 攻击力的物理伤害，有 25% 几率使敌人陷入短暂僵直状态</t>
+  </si>
+  <si>
+    <t>虎痴冲锋</t>
+  </si>
+  <si>
+    <t>许褚如猛虎般向前冲锋，对路径上的敌人造成 150% 攻击力的物理伤害并击飞，冲锋结束后，自身获得 30% 的攻击力提升，持续 3 回合</t>
+  </si>
+  <si>
+    <t>暴怒狂化</t>
+  </si>
+  <si>
+    <t>许褚进入暴怒狂化状态，持续 3 回合，期间自身攻击力提升 40%，攻击速度提升 35%，受到的所有伤害降低 20%，但自身移动速度降低 20%</t>
+  </si>
+  <si>
+    <t>铜皮铁骨</t>
+  </si>
+  <si>
+    <t>许褚的防御力提升 25%，且每次受到伤害时，有 35% 几率触发 “减伤护盾”，可吸收 1200 点伤害，持续 3 回合，该护盾每 4 回合最多触发一次</t>
+  </si>
+  <si>
+    <t>操攻击时，有 35% 几率触发 “奸雄” 效果，本次攻击造成的伤害提升 50%，且若此次攻击击杀敌人，则立即获得 3 点怒气值，并回复自身曹操攻击力 40% 的生命值。展现曹操的枭雄本色，在战斗中把握时机，以强力一击突破防线，获取资源，增强自身续航</t>
+  </si>
+  <si>
+    <t>战斗开始时，曹操获得 “魏武军威” 状态，使己方全体魏国队友攻击力提升 15%，防御力提升 10%，持续 3 回合。每回合结束时，有 40% 几率延长此状态 1 回合。体现曹操的威望与领导力，为魏国团队提供全面的战斗增益，且有机会持续强化</t>
+  </si>
+  <si>
+    <t>当曹操受到攻击时，有 45% 几率触发 “护驾”，随机一名魏国队友挺身而出，代替曹操承受此次伤害，并使曹操本回合防御力提升 20%。若该队友因此次伤害阵亡，曹操攻击力提升 30%，持续至战斗结束。凸显曹操受魏将忠心护佑，且在失去护将后激发更强斗志</t>
+  </si>
+  <si>
+    <t>主公技，曹操每击杀一名敌人，己方全体魏国队友攻击力提升 5%，持续至战斗结束，可叠加 5 次。战斗中，魏国队友每造成 10 次伤害，曹操额外获得 1 点怒气值。激励魏国队友奋勇杀敌，通过不断积累优势，向着乱世霸业迈进，同时加速自身怒气获取，释放更强技能</t>
+  </si>
+  <si>
+    <t>蛇矛横扫</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>舞动丈八蛇矛，对前方扇形范围内敌人造成 130% 攻击力的物理伤害，有 35% 几率使敌人陷入击退状态</t>
+  </si>
+  <si>
+    <t>咆哮怒吼</t>
+  </si>
+  <si>
+    <t>张飞发出一声震天怒吼，对周围敌人造成 140% 攻击力的物理伤害，并使敌人陷入眩晕状态，持续 1 回合，同时自身获得 30% 的攻击力提升，持续 3 回合</t>
+  </si>
+  <si>
+    <t>蛮牛冲撞</t>
+  </si>
+  <si>
+    <t>张飞如蛮牛般向前冲撞，对路径上的敌人造成 150% 攻击力的物理伤害并击飞，冲撞结束后，自身进入 “狂暴” 状态，接下来 3 回合内，攻击速度提升 30%，暴击率提升 20%</t>
+  </si>
+  <si>
+    <t>铁血护盾</t>
+  </si>
+  <si>
+    <t>张飞生命值每降低 15%，就会获得一个可吸收 1000 点伤害的护盾，护盾存在期间，张飞的防御力提升 20%，护盾最多可叠加 4 层</t>
+  </si>
+  <si>
+    <t>轻舞扇击</t>
+  </si>
+  <si>
+    <t>貂蝉</t>
+  </si>
+  <si>
+    <t>舞动团扇，对单个敌人造成 100% 法术强度的法术伤害，有 30% 几率使目标陷入 “魅惑” 状态，下回合无法行动，只能普通攻击自身最近友军</t>
+  </si>
+  <si>
+    <t>闭月之魅</t>
+  </si>
+  <si>
+    <t>释放闭月之魅力，使敌方全体攻击力最高的 2 名敌人陷入 “魅惑” 状态，持续 1 回合，期间被魅惑的敌人攻击友军时，伤害降低 40%</t>
+  </si>
+  <si>
+    <t>离间之计</t>
+  </si>
+  <si>
+    <t>指定敌方两名敌人，使他们互相攻击，持续 2 回合，被离间的敌人对彼此造成的伤害提升 50%，且无法使用技能，只能进行普通攻击</t>
+  </si>
+  <si>
+    <t>红颜智谋</t>
+  </si>
+  <si>
+    <t>貂蝉每次成功释放技能，自身法术强度提升 15%，持续到战斗结束，可叠加 3 层；且敌方有敌人处于 “魅惑” 状态时，貂蝉受到的伤害降低 20%</t>
+  </si>
+  <si>
+    <t>神箭射击</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
+    <t>拉弓射出一箭，对单个敌人造成 120% 攻击力的物理伤害，若攻击暴击，则额外造成 150% 攻击力的伤害</t>
+  </si>
+  <si>
+    <t>百步穿杨</t>
+  </si>
+  <si>
+    <t>黄忠进入瞄准状态，持续 3 回合，期间提升自身 35% 的暴击率和 25% 的攻击力，下一次射击必定暴击，且造成 180% 攻击力的伤害，并使目标移动速度降低 40%，持续 2 回合</t>
+  </si>
+  <si>
+    <t>火箭齐发</t>
+  </si>
+  <si>
+    <t>黄忠向指定区域射出多支火箭，对范围内敌人造成 140% 攻击力的火焰伤害，有 30% 几率使敌人陷入 “灼烧” 状态，每回合损失 150 点生命值，持续 3 回合</t>
+  </si>
+  <si>
+    <t>老将神勇</t>
+  </si>
+  <si>
+    <t>黄忠每存活 3 回合，自身攻击力提升 18%，暴击伤害提升 25%，该效果可叠加，最多叠加 6 层</t>
   </si>
   <si>
     <t>青龙怒斩</t>
@@ -211,283 +492,67 @@
     <t>召唤洪水之力，对范围内敌人造成 160% 攻击力的水系伤害，并使敌人陷入定身状态，持续 1 回合，若敌人处于流血状态，则伤害额外提升 30%</t>
   </si>
   <si>
-    <t>诸葛亮</t>
-  </si>
-  <si>
     <t>武圣威严</t>
   </si>
   <si>
     <t>关羽每次击杀敌人，都会提升自身 15% 的攻击力和 10% 的暴击率，效果可叠加，最多叠加 5 层，持续到战斗结束</t>
   </si>
   <si>
+    <t>炎剑挥斩</t>
+  </si>
+  <si>
+    <t>陆逊</t>
+  </si>
+  <si>
+    <t>挥舞炎剑，对前方敌人造成 120% 攻击力的火焰伤害，有 30% 几率使敌人进入 “灼烧” 状态，每回合损失 120 点生命值，持续 3 回合</t>
+  </si>
+  <si>
+    <t>火烧连营</t>
+  </si>
+  <si>
+    <t>在指定区域召唤火焰，对范围内敌人每回合造成 100% 攻击力的火焰伤害，持续 3 回合，若敌人身上有 “灼烧” 状态，则伤害提升 35%</t>
+  </si>
+  <si>
+    <t>风助火势</t>
+  </si>
+  <si>
+    <t>召唤狂风，使场上所有 “灼烧” 状态的敌人受到的火焰伤害额外提升 40%，同时延长 “灼烧” 状态持续时间 2 回合，自身在接下来 3 回合内法术强度提升 30%</t>
+  </si>
+  <si>
+    <t>火烧赤壁</t>
+  </si>
+  <si>
+    <t>当敌方有 3 个及以上敌人处于 “灼烧” 状态时，陆逊的所有技能伤害提升 30%，且攻击有 25% 几率使目标陷入 “眩晕” 状态，持续 1 回合</t>
+  </si>
+  <si>
+    <t>龙胆突刺</t>
+  </si>
+  <si>
     <t>赵云</t>
   </si>
   <si>
-    <t>羽扇轻挥</t>
-  </si>
-  <si>
-    <t>挥动羽扇，对单个敌人造成 110% 法术强度的法术伤害，有 25% 几率附加 “智谋印记”，当敌人身上的 “智谋印记” 达到 4 层时，立即触发一次 150% 法术强度的额外法术伤害</t>
-  </si>
-  <si>
-    <t>吕布</t>
-  </si>
-  <si>
-    <t>八卦奇门</t>
-  </si>
-  <si>
-    <t>在指定区域布置八卦奇门法阵，法阵持续 3 回合，进入法阵的敌人移动速度降低 35%，每回合受到 80% 法术强度的法术伤害，同时诸葛亮在法阵内获得 30% 的法术强度提升</t>
-  </si>
-  <si>
-    <t>许禇</t>
-  </si>
-  <si>
-    <t>东风破袭</t>
-  </si>
-  <si>
-    <t>召唤东风之力，对一条直线上的敌人造成 140% 法术强度的风系伤害，并将敌人击退，若敌人被击退到障碍物上，会受到额外 50% 法术强度的伤害</t>
-  </si>
-  <si>
-    <t>曹操</t>
-  </si>
-  <si>
-    <t>锦囊妙计</t>
-  </si>
-  <si>
-    <t>诸葛亮每 3 回合，下一次技能伤害将提升 25%，并额外获得 30 点法术穿透，且每次使用技能后，有 30% 几率使自身技能冷却时间缩短 1 回合</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>龙胆突刺</t>
-  </si>
-  <si>
     <t>持枪向前突刺，对直线上的敌人造成 125% 攻击力的物理伤害，若命中敌人，自身获得一层 “龙胆之力”，每层增加 12% 的移动速度，最多叠加 6 层，持续 3 回合</t>
   </si>
   <si>
-    <t>貂蝉</t>
-  </si>
-  <si>
     <t>七进七出</t>
   </si>
   <si>
     <t>赵云瞬间进入无敌状态，在 2 回合内可自由穿梭于战场，每次穿过敌人身边时，对其造成 135% 攻击力的物理伤害，并降低敌人 20% 的防御力，持续 2 回合</t>
   </si>
   <si>
-    <t>黄忠</t>
-  </si>
-  <si>
     <t>银龙护体</t>
   </si>
   <si>
     <t>召唤银龙环绕自身，接下来 3 回合内，自身受到的所有伤害降低 22%，且每次受到攻击时，有 25% 几率反弹 15% 的伤害给攻击者</t>
   </si>
   <si>
-    <t>陆逊</t>
+    <t>END</t>
   </si>
   <si>
     <t>常胜英姿</t>
   </si>
   <si>
     <t>战斗开始时，赵云获得 20% 的攻击力加成和 15% 的闪避率提升，每当自身生命值低于 40% 时，攻击力和闪避率额外提升 20%，直到战斗结束</t>
-  </si>
-  <si>
-    <t>方天画斩</t>
-  </si>
-  <si>
-    <t>挥舞方天画戟，对前方直线范围内敌人造成 120% 攻击力的物理伤害</t>
-  </si>
-  <si>
-    <t>鬼神降临</t>
-  </si>
-  <si>
-    <t>激发体内的鬼神之力，接下来 3 回合内，自身攻击力提升 30%，攻击速度提升 25%，且每次攻击有 20% 几率使目标陷入眩晕状态，持续 1 回合</t>
-  </si>
-  <si>
-    <t>无双冲锋</t>
-  </si>
-  <si>
-    <t>吕布骑着赤兔马向前猛冲，对路径上的敌人造成 150% 攻击力的物理伤害并击退，冲锋结束后，自身获得一个可吸收 800 点伤害的护盾，持续 2 回合</t>
-  </si>
-  <si>
-    <t>魔神护体</t>
-  </si>
-  <si>
-    <t>生命值低于 30% 时，触发魔神护体效果，获得 25% 的伤害减免，且攻击力额外提升 35%，持续到战斗结束或生命值回复到 30% 以上</t>
-  </si>
-  <si>
-    <t>开山巨斧</t>
-  </si>
-  <si>
-    <t>挥动巨斧，对前方敌人造成 135% 攻击力的物理伤害，有 25% 几率使敌人陷入短暂僵直状态</t>
-  </si>
-  <si>
-    <t>虎痴冲锋</t>
-  </si>
-  <si>
-    <t>许褚如猛虎般向前冲锋，对路径上的敌人造成 150% 攻击力的物理伤害并击飞，冲锋结束后，自身获得 30% 的攻击力提升，持续 3 回合</t>
-  </si>
-  <si>
-    <t>暴怒狂化</t>
-  </si>
-  <si>
-    <t>许褚进入暴怒狂化状态，持续 3 回合，期间自身攻击力提升 40%，攻击速度提升 35%，受到的所有伤害降低 20%，但自身移动速度降低 20%</t>
-  </si>
-  <si>
-    <t>铜皮铁骨</t>
-  </si>
-  <si>
-    <t>许褚的防御力提升 25%，且每次受到伤害时，有 35% 几率触发 “减伤护盾”，可吸收 1200 点伤害，持续 3 回合，该护盾每 4 回合最多触发一次</t>
-  </si>
-  <si>
-    <t>奸雄破敌</t>
-  </si>
-  <si>
-    <t>操攻击时，有 35% 几率触发 “奸雄” 效果，本次攻击造成的伤害提升 50%，且若此次攻击击杀敌人，则立即获得 3 点怒气值，并回复自身曹操攻击力 40% 的生命值。展现曹操的枭雄本色，在战斗中把握时机，以强力一击突破防线，获取资源，增强自身续航</t>
-  </si>
-  <si>
-    <t>魏武军威</t>
-  </si>
-  <si>
-    <t>战斗开始时，曹操获得 “魏武军威” 状态，使己方全体魏国队友攻击力提升 15%，防御力提升 10%，持续 3 回合。每回合结束时，有 40% 几率延长此状态 1 回合。体现曹操的威望与领导力，为魏国团队提供全面的战斗增益，且有机会持续强化</t>
-  </si>
-  <si>
-    <t>护驾守护</t>
-  </si>
-  <si>
-    <t>当曹操受到攻击时，有 45% 几率触发 “护驾”，随机一名魏国队友挺身而出，代替曹操承受此次伤害，并使曹操本回合防御力提升 20%。若该队友因此次伤害阵亡，曹操攻击力提升 30%，持续至战斗结束。凸显曹操受魏将忠心护佑，且在失去护将后激发更强斗志</t>
-  </si>
-  <si>
-    <t>乱世霸业</t>
-  </si>
-  <si>
-    <t>主公技，曹操每击杀一名敌人，己方全体魏国队友攻击力提升 5%，持续至战斗结束，可叠加 5 次。战斗中，魏国队友每造成 10 次伤害，曹操额外获得 1 点怒气值。激励魏国队友奋勇杀敌，通过不断积累优势，向着乱世霸业迈进，同时加速自身怒气获取，释放更强技能</t>
-  </si>
-  <si>
-    <t>蛇矛横扫</t>
-  </si>
-  <si>
-    <t>舞动丈八蛇矛，对前方扇形范围内敌人造成 130% 攻击力的物理伤害，有 35% 几率使敌人陷入击退状态</t>
-  </si>
-  <si>
-    <t>咆哮怒吼</t>
-  </si>
-  <si>
-    <t>张飞发出一声震天怒吼，对周围敌人造成 140% 攻击力的物理伤害，并使敌人陷入眩晕状态，持续 1 回合，同时自身获得 30% 的攻击力提升，持续 3 回合</t>
-  </si>
-  <si>
-    <t>蛮牛冲撞</t>
-  </si>
-  <si>
-    <t>张飞如蛮牛般向前冲撞，对路径上的敌人造成 150% 攻击力的物理伤害并击飞，冲撞结束后，自身进入 “狂暴” 状态，接下来 3 回合内，攻击速度提升 30%，暴击率提升 20%</t>
-  </si>
-  <si>
-    <t>铁血护盾</t>
-  </si>
-  <si>
-    <t>张飞生命值每降低 15%，就会获得一个可吸收 1000 点伤害的护盾，护盾存在期间，张飞的防御力提升 20%，护盾最多可叠加 4 层</t>
-  </si>
-  <si>
-    <t>轻舞扇击</t>
-  </si>
-  <si>
-    <t>舞动团扇，对单个敌人造成 100% 法术强度的法术伤害，有 30% 几率使目标陷入 “魅惑” 状态，下回合无法行动，只能普通攻击自身最近友军</t>
-  </si>
-  <si>
-    <t>闭月之魅</t>
-  </si>
-  <si>
-    <t>释放闭月之魅力，使敌方全体攻击力最高的 2 名敌人陷入 “魅惑” 状态，持续 1 回合，期间被魅惑的敌人攻击友军时，伤害降低 40%</t>
-  </si>
-  <si>
-    <t>离间之计</t>
-  </si>
-  <si>
-    <t>指定敌方两名敌人，使他们互相攻击，持续 2 回合，被离间的敌人对彼此造成的伤害提升 50%，且无法使用技能，只能进行普通攻击</t>
-  </si>
-  <si>
-    <t>红颜智谋</t>
-  </si>
-  <si>
-    <t>貂蝉每次成功释放技能，自身法术强度提升 15%，持续到战斗结束，可叠加 3 层；且敌方有敌人处于 “魅惑” 状态时，貂蝉受到的伤害降低 20%</t>
-  </si>
-  <si>
-    <t>神箭射击</t>
-  </si>
-  <si>
-    <t>拉弓射出一箭，对单个敌人造成 120% 攻击力的物理伤害，若攻击暴击，则额外造成 150% 攻击力的伤害</t>
-  </si>
-  <si>
-    <t>百步穿杨</t>
-  </si>
-  <si>
-    <t>黄忠进入瞄准状态，持续 3 回合，期间提升自身 35% 的暴击率和 25% 的攻击力，下一次射击必定暴击，且造成 180% 攻击力的伤害，并使目标移动速度降低 40%，持续 2 回合</t>
-  </si>
-  <si>
-    <t>火箭齐发</t>
-  </si>
-  <si>
-    <t>黄忠向指定区域射出多支火箭，对范围内敌人造成 140% 攻击力的火焰伤害，有 30% 几率使敌人陷入 “灼烧” 状态，每回合损失 150 点生命值，持续 3 回合</t>
-  </si>
-  <si>
-    <t>老将神勇</t>
-  </si>
-  <si>
-    <t>黄忠每存活 3 回合，自身攻击力提升 18%，暴击伤害提升 25%，该效果可叠加，最多叠加 6 层</t>
-  </si>
-  <si>
-    <t>炎剑挥斩</t>
-  </si>
-  <si>
-    <t>挥舞炎剑，对前方敌人造成 120% 攻击力的火焰伤害，有 30% 几率使敌人进入 “灼烧” 状态，每回合损失 120 点生命值，持续 3 回合</t>
-  </si>
-  <si>
-    <t>火烧连营</t>
-  </si>
-  <si>
-    <t>在指定区域召唤火焰，对范围内敌人每回合造成 100% 攻击力的火焰伤害，持续 3 回合，若敌人身上有 “灼烧” 状态，则伤害提升 35%</t>
-  </si>
-  <si>
-    <t>风助火势</t>
-  </si>
-  <si>
-    <t>召唤狂风，使场上所有 “灼烧” 状态的敌人受到的火焰伤害额外提升 40%，同时延长 “灼烧” 状态持续时间 2 回合，自身在接下来 3 回合内法术强度提升 30%</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>火烧赤壁</t>
-  </si>
-  <si>
-    <t>当敌方有 3 个及以上敌人处于 “灼烧” 状态时，陆逊的所有技能伤害提升 30%，且攻击有 25% 几率使目标陷入 “眩晕” 状态，持续 1 回合</t>
-  </si>
-  <si>
-    <t>制衡之策</t>
-  </si>
-  <si>
-    <t>孙权</t>
-  </si>
-  <si>
-    <t>每回合开始时，有 50% 几率重置自身所有已使用技能的冷却时间。若此效果触发，本回合内孙权造成的伤害增加 20%。体现孙权善于权衡局势，随机应变，关键时刻重置技能冷却，掌控战局节奏，强化自身输出</t>
-  </si>
-  <si>
-    <t>东吴水师</t>
-  </si>
-  <si>
-    <t>当孙权攻击水系敌人时，攻击力提升 40%，造成的伤害有 30% 几率附带 “潮湿” 效果，使目标防御力降低 15%，持续 2 回合。若目标已处于 “潮湿” 状态，则此次攻击额外造成孙权攻击力 30% 的真实伤害。突出孙权作为东吴之主，依靠强大水师，在对抗特定敌人时展现出强大优势</t>
-  </si>
-  <si>
-    <t>英主之威</t>
-  </si>
-  <si>
-    <t>当有队友受到致命伤害时，孙权可消耗自身当前生命值的 20%，使该队友此次伤害免疫，并回复其孙权攻击力 80% 的生命值。同时，自身获得 “英主庇护” 状态，接下来 2 回合内受到的伤害降低 25%。彰显孙权作为英主，在队友危难之际挺身而出，以自身代价换取队友生机，并提升自身防御</t>
-  </si>
-  <si>
-    <t>江东号令</t>
-  </si>
-  <si>
-    <t>主公技，每 2 回合，可选择一名吴势力队友，使其本回合内所有技能效果提升 30%。战斗中，当吴势力队友使用技能时，有 35% 几率令孙权额外获得 1 点怒气值。通过发号施令，强化吴势力队友的技能效果，同时借助队友的行动积累自身怒气，为释放更强技能做准备</t>
   </si>
 </sst>
 </file>
@@ -515,6 +580,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="14.05"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -523,13 +595,6 @@
     <font>
       <sz val="13.5"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14.05"/>
-      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -1128,7 +1193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,17 +1203,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1683,25 +1745,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="8.54166666666667" customWidth="1"/>
-    <col min="4" max="4" width="39.25" customWidth="1"/>
-    <col min="5" max="5" width="38.8166666666667" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="40.875" customWidth="1"/>
+    <col min="4" max="5" width="39.25" customWidth="1"/>
+    <col min="6" max="6" width="38.8166666666667" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1720,848 +1782,1012 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:7">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" spans="2:6">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="2:7">
       <c r="B4">
         <v>1001</v>
       </c>
       <c r="C4">
         <v>100101</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" ht="17.25" spans="2:6">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="2:7">
       <c r="B5">
         <v>1002</v>
       </c>
       <c r="C5">
         <v>100102</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" spans="2:6">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="2:7">
       <c r="B6">
         <v>1003</v>
       </c>
       <c r="C6">
         <v>100103</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" spans="2:6">
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="2:7">
       <c r="B7">
         <v>1004</v>
       </c>
       <c r="C7">
         <v>100104</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="17.25" spans="2:10">
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="2:7">
       <c r="B8">
         <v>1005</v>
       </c>
       <c r="C8">
         <v>100201</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I8">
-        <v>1001</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="17.25" spans="2:10">
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="2:7">
       <c r="B9">
         <v>1006</v>
       </c>
       <c r="C9">
         <v>100202</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9">
-        <v>1002</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" ht="17.25" spans="2:10">
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="2:7">
       <c r="B10">
         <v>1007</v>
       </c>
       <c r="C10">
         <v>100203</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10">
-        <v>1003</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" ht="17.25" spans="2:10">
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="2:7">
       <c r="B11">
         <v>1008</v>
       </c>
       <c r="C11">
         <v>100204</v>
       </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I11">
-        <v>1004</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="G11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="2:10">
+    <row r="12" ht="18.75" spans="2:7">
       <c r="B12">
         <v>1009</v>
       </c>
       <c r="C12">
         <v>100301</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I12">
-        <v>1005</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="G12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="17.25" spans="2:10">
+    <row r="13" ht="17.25" spans="2:7">
       <c r="B13">
         <v>1010</v>
       </c>
       <c r="C13">
         <v>100302</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I13">
-        <v>1006</v>
-      </c>
-      <c r="J13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" ht="17.25" spans="2:10">
+    </row>
+    <row r="14" ht="17.25" spans="2:7">
       <c r="B14">
         <v>1011</v>
       </c>
       <c r="C14">
         <v>100303</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14">
-        <v>1007</v>
-      </c>
-      <c r="J14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" ht="17.25" spans="2:10">
+    </row>
+    <row r="15" ht="17.25" spans="2:7">
       <c r="B15">
         <v>1012</v>
       </c>
       <c r="C15">
         <v>100304</v>
       </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15">
-        <v>1008</v>
-      </c>
-      <c r="J15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" ht="21" spans="2:10">
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" spans="2:7">
       <c r="B16">
         <v>1013</v>
       </c>
       <c r="C16">
         <v>100401</v>
       </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16">
-        <v>1009</v>
-      </c>
-      <c r="J16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" ht="17.25" spans="2:10">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="2:7">
       <c r="B17">
         <v>1014</v>
       </c>
       <c r="C17">
         <v>100402</v>
       </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
         <v>3</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17">
-        <v>1010</v>
-      </c>
-      <c r="J17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" ht="17.25" spans="2:10">
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="2:7">
       <c r="B18">
         <v>1015</v>
       </c>
       <c r="C18">
         <v>100403</v>
       </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18">
-        <v>1011</v>
-      </c>
-      <c r="J18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" ht="17.25" spans="2:6">
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="2:7">
       <c r="B19">
         <v>1016</v>
       </c>
       <c r="C19">
         <v>100404</v>
       </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" ht="17.25" spans="2:6">
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="2:7">
       <c r="B20">
         <v>1017</v>
       </c>
       <c r="C20">
         <v>100501</v>
       </c>
-      <c r="D20" t="s">
-        <v>57</v>
+      <c r="D20" s="2">
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" ht="17.25" spans="2:6">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="2:7">
       <c r="B21">
         <v>1018</v>
       </c>
       <c r="C21">
         <v>100502</v>
       </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" ht="17.25" spans="2:6">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" spans="2:7">
       <c r="B22">
         <v>1019</v>
       </c>
       <c r="C22">
         <v>100503</v>
       </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" ht="17.25" spans="2:6">
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" spans="2:7">
       <c r="B23">
         <v>1020</v>
       </c>
       <c r="C23">
         <v>100504</v>
       </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" ht="17.25" spans="2:6">
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="2:7">
       <c r="B24">
         <v>1021</v>
       </c>
       <c r="C24">
         <v>100601</v>
       </c>
-      <c r="D24" t="s">
-        <v>65</v>
+      <c r="D24" s="2">
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" ht="17.25" spans="2:6">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" spans="2:7">
       <c r="B25">
         <v>1022</v>
       </c>
       <c r="C25">
         <v>100602</v>
       </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" ht="17.25" spans="2:6">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25" spans="2:7">
       <c r="B26">
         <v>1023</v>
       </c>
       <c r="C26">
         <v>100603</v>
       </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" ht="17.25" spans="2:6">
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="2:7">
       <c r="B27">
         <v>1024</v>
       </c>
       <c r="C27">
         <v>100604</v>
       </c>
-      <c r="D27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" ht="17.25" spans="2:6">
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="2:7">
       <c r="B28">
         <v>1025</v>
       </c>
       <c r="C28">
         <v>100701</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" ht="17.25" spans="2:6">
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="2:7">
       <c r="B29">
         <v>1026</v>
       </c>
       <c r="C29">
         <v>100702</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" ht="17.25" spans="2:6">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="2:7">
       <c r="B30">
         <v>1027</v>
       </c>
       <c r="C30">
         <v>100703</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" ht="17.25" spans="2:6">
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" spans="2:7">
       <c r="B31">
         <v>1028</v>
       </c>
       <c r="C31">
         <v>100704</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" ht="17.25" spans="2:6">
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" ht="17.25" spans="2:7">
       <c r="B32">
         <v>1029</v>
       </c>
       <c r="C32">
         <v>100801</v>
       </c>
-      <c r="D32" t="s">
-        <v>81</v>
+      <c r="D32" s="2">
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" ht="17.25" spans="2:6">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" spans="2:7">
       <c r="B33">
         <v>1030</v>
       </c>
       <c r="C33">
         <v>100802</v>
       </c>
-      <c r="D33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" ht="17.25" spans="2:6">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="2:7">
       <c r="B34">
         <v>1031</v>
       </c>
       <c r="C34">
         <v>100803</v>
       </c>
-      <c r="D34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" ht="17.25" spans="2:6">
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" spans="2:7">
       <c r="B35">
         <v>1032</v>
       </c>
       <c r="C35">
         <v>100804</v>
       </c>
-      <c r="D35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" ht="17.25" spans="2:6">
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="2:7">
       <c r="B36">
         <v>1033</v>
       </c>
       <c r="C36">
         <v>100901</v>
       </c>
-      <c r="D36" t="s">
-        <v>89</v>
+      <c r="D36" s="2">
+        <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" ht="17.25" spans="2:6">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" ht="17.25" spans="2:7">
       <c r="B37">
         <v>1034</v>
       </c>
       <c r="C37">
         <v>100902</v>
       </c>
-      <c r="D37" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" ht="17.25" spans="2:6">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="2:7">
       <c r="B38">
         <v>1035</v>
       </c>
       <c r="C38">
         <v>100903</v>
       </c>
-      <c r="D38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" ht="17.25" spans="2:6">
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" spans="2:7">
       <c r="B39">
         <v>1036</v>
       </c>
       <c r="C39">
         <v>100904</v>
       </c>
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" ht="17.25" spans="2:6">
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="2:7">
       <c r="B40">
         <v>1037</v>
       </c>
       <c r="C40">
         <v>101001</v>
       </c>
-      <c r="D40" t="s">
-        <v>97</v>
+      <c r="D40" s="2">
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" ht="17.25" spans="2:6">
+        <v>91</v>
+      </c>
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" spans="2:7">
       <c r="B41">
         <v>1038</v>
       </c>
       <c r="C41">
         <v>101002</v>
       </c>
-      <c r="D41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" ht="17.25" spans="2:6">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" spans="2:7">
       <c r="B42">
         <v>1039</v>
       </c>
       <c r="C42">
         <v>101003</v>
       </c>
-      <c r="D42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" spans="2:6">
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="2:7">
       <c r="B43">
         <v>1040</v>
       </c>
       <c r="C43">
         <v>101004</v>
       </c>
-      <c r="D43" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" ht="17.25" spans="2:6">
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" spans="2:7">
       <c r="B44">
         <v>1041</v>
       </c>
       <c r="C44">
         <v>101101</v>
       </c>
-      <c r="D44" t="s">
-        <v>105</v>
+      <c r="D44" s="2">
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" ht="17.25" spans="2:6">
+        <v>100</v>
+      </c>
+      <c r="F44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" ht="17.25" spans="2:7">
       <c r="B45">
         <v>1042</v>
       </c>
       <c r="C45">
         <v>101102</v>
       </c>
-      <c r="D45" t="s">
-        <v>107</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" ht="17.25" spans="2:6">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" ht="17.25" spans="2:7">
       <c r="B46">
         <v>1043</v>
       </c>
       <c r="C46">
         <v>101103</v>
       </c>
-      <c r="D46" t="s">
-        <v>109</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" ht="17.25" spans="1:6">
-      <c r="A47" t="s">
-        <v>111</v>
-      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" ht="17.25" spans="2:7">
       <c r="B47">
         <v>1044</v>
       </c>
       <c r="C47">
         <v>101104</v>
       </c>
-      <c r="D47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" ht="18.75" spans="2:6">
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" ht="17.25" spans="2:7">
       <c r="B48">
         <v>1045</v>
       </c>
       <c r="C48">
         <v>101201</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" ht="17.25" spans="2:6">
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" ht="17.25" spans="2:7">
       <c r="B49">
         <v>1046</v>
       </c>
       <c r="C49">
         <v>101202</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" ht="17.25" spans="2:6">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" ht="17.25" spans="2:7">
       <c r="B50">
         <v>1047</v>
       </c>
       <c r="C50">
         <v>101203</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" ht="17.25" spans="2:6">
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" ht="17.25" spans="2:7">
       <c r="B51">
         <v>1048</v>
       </c>
       <c r="C51">
         <v>101204</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="2">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" ht="21" spans="2:7">
+      <c r="B52">
+        <v>1049</v>
+      </c>
+      <c r="C52">
+        <v>101301</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="17.25" spans="2:7">
+      <c r="B53">
+        <v>1050</v>
+      </c>
+      <c r="C53">
+        <v>101302</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="54" customFormat="1" ht="17.25" spans="2:7">
+      <c r="B54">
+        <v>1051</v>
+      </c>
+      <c r="C54">
+        <v>101303</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" ht="17.25" spans="1:7">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55">
+        <v>1052</v>
+      </c>
+      <c r="C55">
+        <v>101304</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B20:I24">
+  <sortState ref="B20:J24">
     <sortCondition ref="B20"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/skill.xlsx
+++ b/data/skill.xlsx
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="143">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
   <si>
-    <t>主键</t>
-  </si>
-  <si>
     <t>技能id</t>
   </si>
   <si>
@@ -44,9 +41,66 @@
     <t>名称</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF6D6D6D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF6D6D6D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主动</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF6D6D6D"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF6D6D6D"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被动</t>
+    </r>
+  </si>
+  <si>
+    <t>技能范围</t>
+  </si>
+  <si>
+    <t>技能效果</t>
+  </si>
+  <si>
+    <t>伤害系数（万分比）</t>
+  </si>
+  <si>
+    <t>技能目标选择器 1 自己 2 友方 3 敌方</t>
+  </si>
+  <si>
     <t>英雄(配表参考项)</t>
   </si>
   <si>
+    <t>永久buff</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -62,18 +116,33 @@
     <t>id</t>
   </si>
   <si>
-    <t>skillId</t>
-  </si>
-  <si>
     <t>stage</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>aoe_range</t>
+  </si>
+  <si>
+    <t>effect_type</t>
+  </si>
+  <si>
+    <t>damage_rate</t>
+  </si>
+  <si>
+    <t>selector</t>
+  </si>
+  <si>
     <t>hero</t>
   </si>
   <si>
+    <t>buff_id</t>
+  </si>
+  <si>
     <t>tips</t>
   </si>
   <si>
@@ -83,25 +152,219 @@
     <t>刘备</t>
   </si>
   <si>
-    <t>战斗开始，为全体队友施加 “仁德护盾”，可吸收刘备攻击力 40% 的伤害，持续 2 回合。队友护盾被击破受伤害时，刘备有 30% 概率立即为其恢复刘备攻击力 50% 的生命值。</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>战斗开始，为全体队友施加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仁德护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可吸收攻击力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 40% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合。</t>
+    </r>
   </si>
   <si>
     <t>桃园结义</t>
   </si>
   <si>
-    <t>每 3 回合，随机指定一名队友，该队友与刘备本回合攻击力各提升 20%，且双方暴击伤害增加 15%。</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机指定两名队友，攻击力提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，防御增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>昭烈庇护</t>
   </si>
   <si>
-    <t>己方队友阵亡时，刘备攻击力提升 20%、防御力提升 10% 至战斗结束，同时为存活队友恢复刘备攻击力 60% 的生命值。</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当己方队友阵亡，全体存活队友恢复最大生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 25% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的生命值</t>
+    </r>
   </si>
   <si>
     <t>汉室皇恩</t>
   </si>
   <si>
-    <t>战斗开始，蜀国队友初始怒气值 + 20。每回合结束，有 40% 概率为一名蜀国队友回复 10 点怒气值。</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每回合结束，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 40% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率为一名队友回复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生命值</t>
+    </r>
   </si>
   <si>
     <t>奸雄破敌</t>
@@ -110,25 +373,300 @@
     <t>曹操</t>
   </si>
   <si>
-    <t>攻击时，有 30% 概率触发 “奸雄”，为己方全体队友增加 10 点怒气值，并使下一次队友攻击伤害提升 25%。</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队友攻击时，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 30% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奸雄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，攻击伤害提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，持续2回合</t>
+    </r>
   </si>
   <si>
     <t>魏武军威</t>
   </si>
   <si>
-    <t>战斗开始，曹操获得 “魏武军威”，己方全体魏国队友攻击力提升 10%、防御力提升 8%，持续 3 回合，每回合结束有 35% 概率延长 1 回合。</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合开始，己方全体魏国队友攻击力提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、防御力提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 8%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
   </si>
   <si>
     <t>护驾守护</t>
   </si>
   <si>
-    <t>曹操受攻击时，有 40% 概率触发 “护驾”，随机一名魏国队友代替承受伤害，曹操本回合防御力提升 15%。若该队友因此阵亡，曹操为全体存活魏国队友恢复曹操攻击力 50% 的生命值。</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>濒死队友受到攻击时，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 45% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>护驾协防</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。随机选定另一名队友承担</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 30% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害量</t>
+    </r>
   </si>
   <si>
     <t>乱世霸业</t>
   </si>
   <si>
-    <t>曹操每回合结束时，若本回合内有魏国队友击败敌人，全体魏国队友获得一层 “霸业之佑” 效果，每层使防御力提升 3%，最多叠加 7 次。当魏国队友累计造成 15 次伤害后，曹操可指定一名魏国队友，立即重置其一个冷却中的主动技能。</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每回合结束时，若本回合内有魏国队友击败敌人，全体队友获得一层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>霸业之佑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果，防御力提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5%</t>
+    </r>
   </si>
   <si>
     <t>制衡之策</t>
@@ -137,29 +675,465 @@
     <t>孙权</t>
   </si>
   <si>
-    <t>每回合开始，有 45% 概率重置自身所有已使用技能冷却时间，触发则为全体队友增加 10 点怒气值。</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每回合开始，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 45% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率重置队友所有已使用技能冷却时间</t>
+    </r>
   </si>
   <si>
     <t>东吴水师</t>
   </si>
   <si>
-    <t>当有队友攻击水系敌人时，该队友攻击力提升 30%，造成伤害有 25% 概率附带 “潮湿”，使目标防御力降低 12%，持续 2 回合。若目标已有 “潮湿”，此次攻击队友额外获得 10 点怒气值。</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当有队友攻击水系敌人时，孙权会赋予该队友</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水师助力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果，使其攻击力提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 30%</t>
+    </r>
   </si>
   <si>
     <t>英主之威</t>
   </si>
   <si>
-    <t>队友受致命伤害时，孙权消耗自身当前生命值 15%，使队友伤害免疫并回复孙权攻击力 70% 的生命值，自身获得 “英主庇护”，接下来 2 回合内所受伤害降低 20%。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主公技，每</t>
+    <t>队友受到致命伤害时，孙权开启 “英主庇护”，让该队友本次伤害免疫，并且恢复该队友最大生命值的 30%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队友使用技能造成击杀时，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 30% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率刷新技能冷却时间</t>
+    </r>
+  </si>
+  <si>
+    <t>名门援护</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>战斗开始，袁绍为全体队友添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名门护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，吸收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害</t>
+    </r>
+  </si>
+  <si>
+    <t>豪杰聚义</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，随机指定一名队友，防御力提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 20%</t>
+    </r>
+  </si>
+  <si>
+    <t>河北雄威</t>
+  </si>
+  <si>
+    <t>己方队友阵亡时，袁绍为全体存活队友提升 10% 的攻击力，持续 3 回合。</t>
+  </si>
+  <si>
+    <t>袁门号召</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每回合结束，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 35% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概率为一名队友增加10%攻击力，持续2回合</t>
+    </r>
+  </si>
+  <si>
+    <t>方天画斩</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挥舞方天画戟，对敌人造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 120%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害</t>
+    </r>
+  </si>
+  <si>
+    <t>鬼神降临</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击力提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，攻击速度提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合；且每次攻击有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 20% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率使目标陷入眩晕状态，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+  </si>
+  <si>
+    <t>无双冲锋</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>骑着赤兔马向前猛冲，对敌人造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 150%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害，冲锋结束后，自身获得一个可吸收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 800 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点伤害的护盾，持续</t>
     </r>
     <r>
       <rPr>
@@ -177,7 +1151,296 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>回合，可指定一名吴势力队友，使其本回合所有技能效果提升</t>
+      <t>回合</t>
+    </r>
+  </si>
+  <si>
+    <t>魔神护体</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当生命值低于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 30% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，触发魔神护体效果，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 25% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害减免，且攻击力额外提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 35%</t>
+    </r>
+  </si>
+  <si>
+    <t>开山巨斧</t>
+  </si>
+  <si>
+    <t>许禇</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挥动巨斧，对前方敌人造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 135%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 25% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率使敌人陷入眩晕状态</t>
+    </r>
+  </si>
+  <si>
+    <t>虎痴冲锋</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对敌人造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 150% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击力的伤害，冲锋结束后，自身获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 30% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的攻击力提升，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+  </si>
+  <si>
+    <t>暴怒狂化</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入暴怒狂化状态，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，期间自身攻击力提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，攻击速度提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 35%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，受到的所有伤害降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但自身移动速度降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 20%</t>
+    </r>
+  </si>
+  <si>
+    <t>铜皮铁骨</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御力提升</t>
     </r>
     <r>
       <rPr>
@@ -195,7 +1458,194 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>。战斗中，吴势力队友使用技能时，有</t>
+      <t>，且每次受到伤害时，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 35% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减伤护盾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可吸收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1200 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点伤害，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+  </si>
+  <si>
+    <t>神机妙算</t>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+  </si>
+  <si>
+    <t>使己方全体队友获得 “智护” 效果，本回合受到伤害降低 30%</t>
+  </si>
+  <si>
+    <t>八卦奇门</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>召唤八卦之力，对敌方全体造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 110% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法术强度的法术伤害，同时有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 50% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率使敌方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名角色沉默</t>
+    </r>
+  </si>
+  <si>
+    <t>火攻之计</t>
+  </si>
+  <si>
+    <t>对敌方全体造成 120% 法术强度的法术伤害，有 40% 几率使敌人陷入 “灼烧” 状态</t>
+  </si>
+  <si>
+    <t>空城抚琴</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当诸葛亮的生命值低于</t>
     </r>
     <r>
       <rPr>
@@ -213,181 +1663,44 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>概率令孙权为另一名队友回复</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点怒气值。</t>
-    </r>
-  </si>
-  <si>
-    <t>名门援护</t>
-  </si>
-  <si>
-    <t>袁绍</t>
-  </si>
-  <si>
-    <t>战斗开始，为全体队友添加 “名门护盾”，可吸收袁绍攻击力 35% 的伤害，持续 2 回合。队友护盾被击破受伤害时，袁绍有 25% 概率立即为其恢复袁绍攻击力 40% 的生命值。</t>
-  </si>
-  <si>
-    <t>豪杰聚义</t>
-  </si>
-  <si>
-    <t>每 4 回合，随机指定一名队友，该队友与袁绍本回合防御力各提升 20%，且双方受到攻击时有 15% 概率使攻击者攻击力降低 10%，持续 1 回合</t>
-  </si>
-  <si>
-    <t>河北雄威</t>
-  </si>
-  <si>
-    <t>己方队友阵亡时，袁绍为全体存活队友增加 15 点怒气值，自身获得 “河北雄威” 状态，接下来 3 回合内，己方全体队友受到的单体伤害降低 10%。</t>
-  </si>
-  <si>
-    <t>袁门号召</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主公技，战斗开始，所有袁绍阵营队友初始怒气值增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 15 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点。每回合结束，有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 35% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>概率为一名袁绍阵营队友回复</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点怒气值。</t>
-    </r>
-  </si>
-  <si>
-    <t>方天画斩</t>
-  </si>
-  <si>
-    <t>吕布</t>
-  </si>
-  <si>
-    <t>挥舞方天画戟，对前方直线范围内敌人造成 120% 攻击力的物理伤害</t>
-  </si>
-  <si>
-    <t>鬼神降临</t>
-  </si>
-  <si>
-    <t>激发体内的鬼神之力，接下来 3 回合内，自身攻击力提升 30%，攻击速度提升 25%，且每次攻击有 20% 几率使目标陷入眩晕状态，持续 1 回合</t>
-  </si>
-  <si>
-    <t>无双冲锋</t>
-  </si>
-  <si>
-    <t>吕布骑着赤兔马向前猛冲，对路径上的敌人造成 150% 攻击力的物理伤害并击退，冲锋结束后，自身获得一个可吸收 800 点伤害的护盾，持续 2 回合</t>
-  </si>
-  <si>
-    <t>魔神护体</t>
-  </si>
-  <si>
-    <t>生命值低于 30% 时，触发魔神护体效果，获得 25% 的伤害减免，且攻击力额外提升 35%，持续到战斗结束或生命值回复到 30% 以上</t>
-  </si>
-  <si>
-    <t>开山巨斧</t>
-  </si>
-  <si>
-    <t>许禇</t>
-  </si>
-  <si>
-    <t>挥动巨斧，对前方敌人造成 135% 攻击力的物理伤害，有 25% 几率使敌人陷入短暂僵直状态</t>
-  </si>
-  <si>
-    <t>虎痴冲锋</t>
-  </si>
-  <si>
-    <t>许褚如猛虎般向前冲锋，对路径上的敌人造成 150% 攻击力的物理伤害并击飞，冲锋结束后，自身获得 30% 的攻击力提升，持续 3 回合</t>
-  </si>
-  <si>
-    <t>暴怒狂化</t>
-  </si>
-  <si>
-    <t>许褚进入暴怒狂化状态，持续 3 回合，期间自身攻击力提升 40%，攻击速度提升 35%，受到的所有伤害降低 20%，但自身移动速度降低 20%</t>
-  </si>
-  <si>
-    <t>铜皮铁骨</t>
-  </si>
-  <si>
-    <t>许褚的防御力提升 25%，且每次受到伤害时，有 35% 几率触发 “减伤护盾”，可吸收 1200 点伤害，持续 3 回合，该护盾每 4 回合最多触发一次</t>
-  </si>
-  <si>
-    <t>操攻击时，有 35% 几率触发 “奸雄” 效果，本次攻击造成的伤害提升 50%，且若此次攻击击杀敌人，则立即获得 3 点怒气值，并回复自身曹操攻击力 40% 的生命值。展现曹操的枭雄本色，在战斗中把握时机，以强力一击突破防线，获取资源，增强自身续航</t>
-  </si>
-  <si>
-    <t>战斗开始时，曹操获得 “魏武军威” 状态，使己方全体魏国队友攻击力提升 15%，防御力提升 10%，持续 3 回合。每回合结束时，有 40% 几率延长此状态 1 回合。体现曹操的威望与领导力，为魏国团队提供全面的战斗增益，且有机会持续强化</t>
-  </si>
-  <si>
-    <t>当曹操受到攻击时，有 45% 几率触发 “护驾”，随机一名魏国队友挺身而出，代替曹操承受此次伤害，并使曹操本回合防御力提升 20%。若该队友因此次伤害阵亡，曹操攻击力提升 30%，持续至战斗结束。凸显曹操受魏将忠心护佑，且在失去护将后激发更强斗志</t>
-  </si>
-  <si>
-    <t>主公技，曹操每击杀一名敌人，己方全体魏国队友攻击力提升 5%，持续至战斗结束，可叠加 5 次。战斗中，魏国队友每造成 10 次伤害，曹操额外获得 1 点怒气值。激励魏国队友奋勇杀敌，通过不断积累优势，向着乱世霸业迈进，同时加速自身怒气获取，释放更强技能</t>
+      <t>时，敌方全体角色攻击力降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 30%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合。</t>
+    </r>
   </si>
   <si>
     <t>蛇矛横扫</t>
@@ -565,7 +1878,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,15 +1887,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FF6D6D6D"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14.05"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -741,6 +2054,13 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FF6D6D6D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1197,14 +2517,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1745,25 +3065,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="8.54166666666667" customWidth="1"/>
-    <col min="4" max="5" width="39.25" customWidth="1"/>
-    <col min="6" max="6" width="38.8166666666667" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="39.25" customWidth="1"/>
+    <col min="5" max="5" width="28.75" customWidth="1"/>
+    <col min="6" max="6" width="39.25" customWidth="1"/>
+    <col min="7" max="10" width="38.8166666666667" customWidth="1"/>
+    <col min="11" max="12" width="36" customWidth="1"/>
+    <col min="13" max="13" width="8.875" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="14.25" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +3098,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1785,1011 +3107,1741 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" spans="2:7">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="2:12">
       <c r="B4">
-        <v>1001</v>
-      </c>
-      <c r="C4">
         <v>100101</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="2:7">
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>10000</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="2:12">
       <c r="B5">
-        <v>1002</v>
+        <v>100102</v>
       </c>
       <c r="C5">
-        <v>100102</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" spans="2:7">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>10000</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="2:12">
       <c r="B6">
-        <v>1003</v>
-      </c>
-      <c r="C6">
         <v>100103</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" spans="2:7">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>10000</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="2:12">
       <c r="B7">
-        <v>1004</v>
-      </c>
-      <c r="C7">
         <v>100104</v>
       </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>10000</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="17.25" spans="2:7">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="2:12">
       <c r="B8">
-        <v>1005</v>
-      </c>
-      <c r="C8">
         <v>100201</v>
       </c>
-      <c r="D8" s="2">
+      <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" ht="17.25" spans="2:7">
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>10000</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="2:12">
       <c r="B9">
-        <v>1006</v>
+        <v>100202</v>
       </c>
       <c r="C9">
-        <v>100202</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" ht="17.25" spans="2:7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>10000</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="2:12">
       <c r="B10">
-        <v>1007</v>
-      </c>
-      <c r="C10">
         <v>100203</v>
       </c>
-      <c r="D10" s="2">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="17.25" spans="2:7">
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>10000</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="2:12">
       <c r="B11">
-        <v>1008</v>
-      </c>
-      <c r="C11">
         <v>100204</v>
       </c>
-      <c r="D11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" spans="2:7">
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>10000</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="2:12">
       <c r="B12">
-        <v>1009</v>
-      </c>
-      <c r="C12">
         <v>100301</v>
       </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" ht="17.25" spans="2:7">
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>10000</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="2:12">
       <c r="B13">
-        <v>1010</v>
+        <v>100302</v>
       </c>
       <c r="C13">
-        <v>100302</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" ht="17.25" spans="2:7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>10000</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="2:12">
       <c r="B14">
-        <v>1011</v>
-      </c>
-      <c r="C14">
         <v>100303</v>
       </c>
-      <c r="D14" s="2">
+      <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" ht="17.25" spans="2:7">
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>10000</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="2:12">
       <c r="B15">
-        <v>1012</v>
-      </c>
-      <c r="C15">
         <v>100304</v>
       </c>
-      <c r="D15" s="2">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" spans="2:7">
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>10000</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="2:12">
       <c r="B16">
-        <v>1013</v>
-      </c>
-      <c r="C16">
         <v>100401</v>
       </c>
-      <c r="D16" s="2">
+      <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" ht="17.25" spans="2:7">
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>10000</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="2:12">
       <c r="B17">
-        <v>1014</v>
+        <v>100402</v>
       </c>
       <c r="C17">
-        <v>100402</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" ht="17.25" spans="2:7">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>10000</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="2:12">
       <c r="B18">
-        <v>1015</v>
-      </c>
-      <c r="C18">
         <v>100403</v>
       </c>
-      <c r="D18" s="2">
+      <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>10000</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
         <v>2</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" ht="17.25" spans="2:7">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="2:12">
       <c r="B19">
-        <v>1016</v>
-      </c>
-      <c r="C19">
         <v>100404</v>
       </c>
-      <c r="D19" s="2">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" ht="17.25" spans="2:7">
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>10000</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="2:12">
       <c r="B20">
-        <v>1017</v>
-      </c>
-      <c r="C20">
         <v>100501</v>
       </c>
-      <c r="D20" s="2">
+      <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" ht="17.25" spans="2:7">
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>10000</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="2:12">
       <c r="B21">
-        <v>1018</v>
+        <v>100502</v>
       </c>
       <c r="C21">
-        <v>100502</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" ht="17.25" spans="2:7">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>10000</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" spans="2:12">
       <c r="B22">
-        <v>1019</v>
-      </c>
-      <c r="C22">
         <v>100503</v>
       </c>
-      <c r="D22" s="2">
+      <c r="C22" s="2">
         <v>2</v>
       </c>
-      <c r="E22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" ht="17.25" spans="2:7">
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>10000</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" spans="2:12">
       <c r="B23">
-        <v>1020</v>
-      </c>
-      <c r="C23">
         <v>100504</v>
       </c>
-      <c r="D23" s="2">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" ht="17.25" spans="2:7">
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>10000</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="2:12">
       <c r="B24">
-        <v>1021</v>
-      </c>
-      <c r="C24">
         <v>100601</v>
       </c>
-      <c r="D24" s="2">
+      <c r="C24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" ht="17.25" spans="2:7">
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>10000</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" spans="2:12">
       <c r="B25">
-        <v>1022</v>
+        <v>100602</v>
       </c>
       <c r="C25">
-        <v>100602</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" ht="17.25" spans="2:7">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>10000</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25" spans="2:12">
       <c r="B26">
-        <v>1023</v>
-      </c>
-      <c r="C26">
         <v>100603</v>
       </c>
-      <c r="D26" s="2">
+      <c r="C26" s="2">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" ht="17.25" spans="2:7">
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>10000</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="2:12">
       <c r="B27">
-        <v>1024</v>
-      </c>
-      <c r="C27">
         <v>100604</v>
       </c>
-      <c r="D27" s="2">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" ht="17.25" spans="2:7">
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>10000</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="2:12">
       <c r="B28">
-        <v>1025</v>
-      </c>
-      <c r="C28">
         <v>100701</v>
       </c>
-      <c r="D28" s="2">
+      <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" ht="17.25" spans="2:7">
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>10000</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="2:12">
       <c r="B29">
-        <v>1026</v>
+        <v>100702</v>
       </c>
       <c r="C29">
-        <v>100702</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" ht="17.25" spans="2:7">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>10000</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="2:12">
       <c r="B30">
-        <v>1027</v>
-      </c>
-      <c r="C30">
         <v>100703</v>
       </c>
-      <c r="D30" s="2">
+      <c r="C30" s="2">
         <v>2</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" ht="17.25" spans="2:7">
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>10000</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" spans="2:12">
       <c r="B31">
-        <v>1028</v>
-      </c>
-      <c r="C31">
         <v>100704</v>
       </c>
-      <c r="D31" s="2">
-        <v>3</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" ht="17.25" spans="2:7">
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>10000</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" ht="17.25" spans="2:12">
       <c r="B32">
-        <v>1029</v>
-      </c>
-      <c r="C32">
         <v>100801</v>
       </c>
-      <c r="D32" s="2">
+      <c r="C32" s="2">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" ht="17.25" spans="2:7">
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>10000</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" spans="2:12">
       <c r="B33">
-        <v>1030</v>
+        <v>100802</v>
       </c>
       <c r="C33">
-        <v>100802</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" ht="17.25" spans="2:7">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>10000</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="2:12">
       <c r="B34">
-        <v>1031</v>
-      </c>
-      <c r="C34">
         <v>100803</v>
       </c>
-      <c r="D34" s="2">
+      <c r="C34" s="2">
         <v>2</v>
       </c>
-      <c r="E34" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" ht="17.25" spans="2:7">
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>10000</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" spans="2:12">
       <c r="B35">
-        <v>1032</v>
-      </c>
-      <c r="C35">
         <v>100804</v>
       </c>
-      <c r="D35" s="2">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" ht="17.25" spans="2:7">
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>10000</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="2:12">
       <c r="B36">
-        <v>1033</v>
-      </c>
-      <c r="C36">
         <v>100901</v>
       </c>
-      <c r="D36" s="2">
+      <c r="C36" s="2">
         <v>0</v>
       </c>
-      <c r="E36" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" ht="17.25" spans="2:7">
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>10000</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" ht="17.25" spans="2:12">
       <c r="B37">
-        <v>1034</v>
+        <v>100902</v>
       </c>
       <c r="C37">
-        <v>100902</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" ht="17.25" spans="2:7">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>10000</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="2:12">
       <c r="B38">
-        <v>1035</v>
-      </c>
-      <c r="C38">
         <v>100903</v>
       </c>
-      <c r="D38" s="2">
+      <c r="C38" s="2">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" ht="17.25" spans="2:7">
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>10000</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" spans="2:12">
       <c r="B39">
-        <v>1036</v>
-      </c>
-      <c r="C39">
         <v>100904</v>
       </c>
-      <c r="D39" s="2">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" ht="17.25" spans="2:7">
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>10000</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="2:12">
       <c r="B40">
-        <v>1037</v>
-      </c>
-      <c r="C40">
         <v>101001</v>
       </c>
-      <c r="D40" s="2">
+      <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="E40" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" ht="17.25" spans="2:7">
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>10000</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>107</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" spans="2:12">
       <c r="B41">
-        <v>1038</v>
+        <v>101002</v>
       </c>
       <c r="C41">
-        <v>101002</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" ht="17.25" spans="2:7">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>10000</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" spans="2:12">
       <c r="B42">
-        <v>1039</v>
-      </c>
-      <c r="C42">
         <v>101003</v>
       </c>
-      <c r="D42" s="2">
+      <c r="C42" s="2">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" ht="17.25" spans="2:7">
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>10000</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="2:12">
       <c r="B43">
-        <v>1040</v>
-      </c>
-      <c r="C43">
         <v>101004</v>
       </c>
-      <c r="D43" s="2">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" ht="17.25" spans="2:7">
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>10000</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" spans="2:12">
       <c r="B44">
-        <v>1041</v>
-      </c>
-      <c r="C44">
         <v>101101</v>
       </c>
-      <c r="D44" s="2">
+      <c r="C44" s="2">
         <v>0</v>
       </c>
-      <c r="E44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" ht="17.25" spans="2:7">
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>10000</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>116</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" ht="17.25" spans="2:12">
       <c r="B45">
-        <v>1042</v>
+        <v>101102</v>
       </c>
       <c r="C45">
-        <v>101102</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>103</v>
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" ht="17.25" spans="2:7">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>10000</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" ht="17.25" spans="2:12">
       <c r="B46">
-        <v>1043</v>
-      </c>
-      <c r="C46">
         <v>101103</v>
       </c>
-      <c r="D46" s="2">
+      <c r="C46" s="2">
         <v>2</v>
       </c>
-      <c r="E46" t="s">
-        <v>105</v>
+      <c r="D46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" ht="17.25" spans="2:7">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>10000</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" ht="17.25" spans="2:12">
       <c r="B47">
-        <v>1044</v>
-      </c>
-      <c r="C47">
         <v>101104</v>
       </c>
-      <c r="D47" s="2">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>107</v>
+      <c r="C47" s="2">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
       <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>10000</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
         <v>2</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" ht="17.25" spans="2:7">
+      <c r="K47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" ht="17.25" spans="2:12">
       <c r="B48">
-        <v>1045</v>
-      </c>
-      <c r="C48">
         <v>101201</v>
       </c>
-      <c r="D48" s="2">
+      <c r="C48" s="2">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" ht="17.25" spans="2:7">
+      <c r="D48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>10000</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" ht="17.25" spans="2:12">
       <c r="B49">
-        <v>1046</v>
+        <v>101202</v>
       </c>
       <c r="C49">
-        <v>101202</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>112</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" ht="17.25" spans="2:7">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>10000</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" ht="17.25" spans="2:12">
       <c r="B50">
-        <v>1047</v>
-      </c>
-      <c r="C50">
         <v>101203</v>
       </c>
-      <c r="D50" s="2">
+      <c r="C50" s="2">
         <v>2</v>
       </c>
-      <c r="E50" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" ht="17.25" spans="2:7">
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>10000</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" ht="17.25" spans="2:12">
       <c r="B51">
-        <v>1048</v>
-      </c>
-      <c r="C51">
         <v>101204</v>
       </c>
-      <c r="D51" s="2">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>116</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" ht="21" spans="2:7">
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>10000</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" ht="21" spans="2:12">
       <c r="B52">
-        <v>1049</v>
-      </c>
-      <c r="C52">
         <v>101301</v>
       </c>
-      <c r="D52" s="2">
+      <c r="C52" s="2">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
-        <v>118</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" ht="17.25" spans="2:7">
+      <c r="D52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>10000</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="17.25" spans="2:12">
       <c r="B53">
-        <v>1050</v>
+        <v>101302</v>
       </c>
       <c r="C53">
-        <v>101302</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
       </c>
       <c r="F53">
         <v>3</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" ht="17.25" spans="2:7">
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>10000</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="17.25" spans="2:12">
       <c r="B54">
-        <v>1051</v>
-      </c>
-      <c r="C54">
         <v>101303</v>
       </c>
-      <c r="D54" s="2">
+      <c r="C54" s="2">
         <v>2</v>
       </c>
-      <c r="E54" t="s">
-        <v>123</v>
+      <c r="D54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
       </c>
       <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>10000</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
         <v>2</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" ht="17.25" spans="1:7">
+      <c r="K54" s="2"/>
+      <c r="L54" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" ht="17.25" spans="1:12">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B55">
-        <v>1052</v>
-      </c>
-      <c r="C55">
         <v>101304</v>
       </c>
-      <c r="D55" s="2">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>127</v>
+      <c r="C55" s="2">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>10000</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B20:J24">
-    <sortCondition ref="B20"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
